--- a/user-data/kenya-educ-percent/kenya-educ-percent.xlsx
+++ b/user-data/kenya-educ-percent/kenya-educ-percent.xlsx
@@ -262,7 +262,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 32</t>
+    <t xml:space="preserve">Source: 33</t>
   </si>
   <si>
     <t xml:space="preserve"/>

--- a/user-data/kenya-educ-percent/kenya-educ-percent.xlsx
+++ b/user-data/kenya-educ-percent/kenya-educ-percent.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t xml:space="preserve">district_id</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Baringo</t>
   </si>
   <si>
-    <t xml:space="preserve">estimated</t>
+    <t xml:space="preserve">actual</t>
   </si>
   <si>
     <t xml:space="preserve">d18975</t>
@@ -64,7 +64,10 @@
     <t xml:space="preserve">Elgeyo-Marakwet</t>
   </si>
   <si>
-    <t xml:space="preserve">actual</t>
+    <t xml:space="preserve">d18955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embu</t>
   </si>
   <si>
     <t xml:space="preserve">d18965</t>
@@ -79,12 +82,30 @@
     <t xml:space="preserve">Homa Bay</t>
   </si>
   <si>
+    <t xml:space="preserve">d18956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isiolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kajiado</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18989</t>
   </si>
   <si>
     <t xml:space="preserve">Kakamega</t>
   </si>
   <si>
+    <t xml:space="preserve">d18977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kericho</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18943</t>
   </si>
   <si>
@@ -127,24 +148,48 @@
     <t xml:space="preserve">Kwale</t>
   </si>
   <si>
+    <t xml:space="preserve">d18978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laikipia</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18951</t>
   </si>
   <si>
     <t xml:space="preserve">Lamu</t>
   </si>
   <si>
+    <t xml:space="preserve">d18958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machakos</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18959</t>
   </si>
   <si>
     <t xml:space="preserve">Makueni</t>
   </si>
   <si>
+    <t xml:space="preserve">d18966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandera</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18960</t>
   </si>
   <si>
     <t xml:space="preserve">Marsabit</t>
   </si>
   <si>
+    <t xml:space="preserve">d18961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meru</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18971</t>
   </si>
   <si>
@@ -175,6 +220,12 @@
     <t xml:space="preserve">Nakuru</t>
   </si>
   <si>
+    <t xml:space="preserve">d18980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nandi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18981</t>
   </si>
   <si>
@@ -187,6 +238,12 @@
     <t xml:space="preserve">Nithi</t>
   </si>
   <si>
+    <t xml:space="preserve">d18972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyamira</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18947</t>
   </si>
   <si>
@@ -217,6 +274,12 @@
     <t xml:space="preserve">Taita Taveta</t>
   </si>
   <si>
+    <t xml:space="preserve">d18954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tana River</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18983</t>
   </si>
   <si>
@@ -235,15 +298,24 @@
     <t xml:space="preserve">Uasin Gishu</t>
   </si>
   <si>
+    <t xml:space="preserve">d18990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vihiga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wajir</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18986</t>
   </si>
   <si>
     <t xml:space="preserve">West Pokot</t>
   </si>
   <si>
-    <t xml:space="preserve">2014</t>
-  </si>
-  <si>
     <t xml:space="preserve">2015</t>
   </si>
   <si>
@@ -253,6 +325,9 @@
     <t xml:space="preserve">2017</t>
   </si>
   <si>
+    <t xml:space="preserve">2018</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name: kenya-educ-percent</t>
   </si>
   <si>
@@ -262,7 +337,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 33</t>
+    <t xml:space="preserve">Source: 34</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -620,77 +695,77 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -732,13 +807,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>8.724532479</v>
+        <v>10.4578116363462</v>
       </c>
     </row>
     <row r="3">
@@ -749,72 +824,72 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>6.5064626981</v>
+        <v>8.49766880377428</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>13.0494568667</v>
+        <v>8.38448984444969</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>17.5946331904</v>
+        <v>8.00119176910435</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>6.2278779243</v>
+        <v>13.4086490748671</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
         <v>2016</v>
@@ -823,117 +898,117 @@
         <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>13.7747841222</v>
+        <v>8.6249499592772</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>6.0126563482</v>
+        <v>7.99665156477129</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>7.7823228738</v>
+        <v>7.25835952263058</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>8.5217824321</v>
+        <v>7.97990782455595</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>8.5267058753</v>
+        <v>7.30237414471093</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>3.4910563235</v>
+        <v>7.42703778082243</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>6.5295056739</v>
+        <v>14.3292138919336</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
         <v>2015</v>
@@ -942,15 +1017,15 @@
         <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>7.9102517225</v>
+        <v>4.59305188073156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
         <v>2016</v>
@@ -959,270 +1034,270 @@
         <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>11.6268733182</v>
+        <v>6.81784860666442</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>5.0684196731</v>
+        <v>7.09184887951848</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>9.9363064378</v>
+        <v>5.39060401760197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>13.7779473859</v>
+        <v>7.19662307760427</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>10.4812908185</v>
+        <v>6.78712290435907</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>3.7404976239</v>
+        <v>7.01418525580879</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>4.0016870056</v>
+        <v>8.64328645922159</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C22" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>7.2332212223</v>
+        <v>2.28172777044404</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C23" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>5.4128344624</v>
+        <v>3.86564135480659</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C24" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>17.4306849889</v>
+        <v>7.71613566396897</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C25" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>9.7660594125</v>
+        <v>7.67758375474084</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C26" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26" t="n">
-        <v>6.7851138604</v>
+        <v>3.47927594675722</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C27" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>5.4639928713</v>
+        <v>5.6794574117072</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C28" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>5.0879670193</v>
+        <v>4.54832596336071</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C29" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29" t="n">
-        <v>8.2394537366</v>
+        <v>7.82327092648123</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C30" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3658253431</v>
+        <v>6.75170625351622</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C31" t="n">
         <v>2016</v>
@@ -1231,202 +1306,202 @@
         <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>5.9042640904</v>
+        <v>6.75682928138249</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C32" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
       <c r="E32" t="n">
-        <v>3.68650404</v>
+        <v>6.72375813849736</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C33" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
       </c>
       <c r="E33" t="n">
-        <v>6.390150581</v>
+        <v>9.81694649100474</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C34" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="E34" t="n">
-        <v>5.2352482554</v>
+        <v>4.92363273425035</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C35" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
       <c r="E35" t="n">
-        <v>8.4302274997</v>
+        <v>4.96069153327665</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C36" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
       </c>
       <c r="E36" t="n">
-        <v>8.0201377509</v>
+        <v>6.36948692550371</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C37" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
       </c>
       <c r="E37" t="n">
-        <v>3.8955182872</v>
+        <v>2.09179746788867</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C38" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>6.9098980732</v>
+        <v>7.60880115772197</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C39" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>4.3708674047</v>
+        <v>12.7304560973475</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C40" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>5.4184026441</v>
+        <v>8.74926658119169</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C41" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>7.0924635437</v>
+        <v>8.81163989263754</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C42" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>9.0724497926</v>
+        <v>7.509793262983</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="C43" t="n">
         <v>2016</v>
@@ -1435,15 +1510,15 @@
         <v>7</v>
       </c>
       <c r="E43" t="n">
-        <v>10.4169146994</v>
+        <v>4.70683398409794</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="C44" t="n">
         <v>2017</v>
@@ -1452,228 +1527,2466 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>12.1678820533</v>
+        <v>4.41488890855979</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="C45" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
       </c>
       <c r="E45" t="n">
-        <v>12.4646924459</v>
+        <v>3.59155530685989</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="C46" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>12.46133283</v>
+        <v>9.21153450821357</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C47" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
       </c>
       <c r="E47" t="n">
-        <v>9.3043458322</v>
+        <v>5.78141104498454</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C48" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>4.3018985632</v>
+        <v>10.6149231346082</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C49" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>12.554982068</v>
+        <v>8.74213277594687</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C50" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>5.8961871169</v>
+        <v>7.08233847333243</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C51" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
       </c>
       <c r="E51" t="n">
-        <v>8.1506918807</v>
+        <v>5.99697331801451</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="C52" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
       </c>
       <c r="E52" t="n">
-        <v>11.4526789771</v>
+        <v>5.85863107763257</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="C53" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
       </c>
       <c r="E53" t="n">
-        <v>9.7354469221</v>
+        <v>11.8457387867621</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="C54" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
       </c>
       <c r="E54" t="n">
-        <v>9.9786727795</v>
+        <v>14.6669041823589</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="C55" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
       </c>
       <c r="E55" t="n">
-        <v>9.9202080782</v>
+        <v>12.2971511424712</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="C56" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
       </c>
       <c r="E56" t="n">
-        <v>11.7754327047</v>
+        <v>12.7972616432693</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" t="n">
+        <v>9.64869655749284</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4.89304317520322</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" t="n">
+        <v>5.23722693845021</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" t="n">
+        <v>6.59873733389536</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4.64717979547219</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" t="n">
+        <v>6.61029106998925</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" t="n">
+        <v>8.74636670008211</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" t="n">
+        <v>6.38924265021708</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" t="n">
+        <v>6.31016267077402</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2.79512706859898</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4.22941772914522</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" t="n">
+        <v>6.33634841360954</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" t="n">
+        <v>5.5432999515678</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" t="n">
+        <v>6.65804024760624</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" t="n">
+        <v>6.21246329709312</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="n">
+        <v>7.95156465923154</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" t="n">
+        <v>6.71713215807037</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" t="n">
+        <v>12.6942287588123</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="n">
+        <v>17.3670592818469</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="n">
+        <v>18.0137015518756</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>42</v>
+      </c>
+      <c r="B77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" t="n">
+        <v>17.1068309838845</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>44</v>
+      </c>
+      <c r="B78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.57029913269219</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>44</v>
+      </c>
+      <c r="B79" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2.47839323805995</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>44</v>
+      </c>
+      <c r="B80" t="s">
+        <v>45</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2.09439866175865</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>44</v>
+      </c>
+      <c r="B81" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.04532062373638</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>46</v>
+      </c>
+      <c r="B82" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" t="n">
+        <v>6.97017524446282</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>46</v>
+      </c>
+      <c r="B83" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" t="n">
+        <v>9.06819506198462</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" t="n">
+        <v>8.67794297638396</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" t="n">
+        <v>7.10338235508178</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" t="n">
+        <v>3.75111497510359</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>48</v>
+      </c>
+      <c r="B87" t="s">
+        <v>49</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3.50092752126695</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>48</v>
+      </c>
+      <c r="B88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.42204908419383</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>48</v>
+      </c>
+      <c r="B89" t="s">
+        <v>49</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.90911060732868</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>50</v>
+      </c>
+      <c r="B90" t="s">
+        <v>51</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" t="n">
+        <v>8.53594833859117</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>50</v>
+      </c>
+      <c r="B91" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" t="n">
+        <v>5.95432048313127</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>50</v>
+      </c>
+      <c r="B92" t="s">
+        <v>51</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" t="n">
+        <v>6.94860526914512</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>50</v>
+      </c>
+      <c r="B93" t="s">
+        <v>51</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" t="n">
+        <v>7.03535887029521</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>52</v>
+      </c>
+      <c r="B94" t="s">
+        <v>53</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" t="n">
+        <v>6.06834328186116</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>52</v>
+      </c>
+      <c r="B95" t="s">
+        <v>53</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" t="n">
+        <v>8.17768407300319</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>52</v>
+      </c>
+      <c r="B96" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" t="n">
+        <v>5.88038580163676</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>52</v>
+      </c>
+      <c r="B97" t="s">
+        <v>53</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" t="n">
+        <v>6.46367140478398</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>54</v>
+      </c>
+      <c r="B98" t="s">
+        <v>55</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3.55725009913536</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>54</v>
+      </c>
+      <c r="B99" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" t="n">
+        <v>3.62364691039014</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>54</v>
+      </c>
+      <c r="B100" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" t="n">
+        <v>7.55435570195506</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>54</v>
+      </c>
+      <c r="B101" t="s">
+        <v>55</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" t="n">
+        <v>6.04857742331363</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>56</v>
+      </c>
+      <c r="B102" t="s">
+        <v>57</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" t="n">
+        <v>3.33848249923242</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>56</v>
+      </c>
+      <c r="B103" t="s">
+        <v>57</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" t="n">
+        <v>5.92588657277721</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>56</v>
+      </c>
+      <c r="B104" t="s">
+        <v>57</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" t="n">
+        <v>6.10447696799153</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>56</v>
+      </c>
+      <c r="B105" t="s">
+        <v>57</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" t="n">
+        <v>6.17935147837109</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>58</v>
+      </c>
+      <c r="B106" t="s">
+        <v>59</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" t="n">
+        <v>5.04172571248622</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>58</v>
+      </c>
+      <c r="B107" t="s">
+        <v>59</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2.54043929848459</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>58</v>
+      </c>
+      <c r="B108" t="s">
+        <v>59</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" t="n">
+        <v>5.00428083663708</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>58</v>
+      </c>
+      <c r="B109" t="s">
+        <v>59</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" t="n">
+        <v>4.89071724340166</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>60</v>
+      </c>
+      <c r="B110" t="s">
+        <v>61</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" t="n">
+        <v>4.40298779282139</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>60</v>
+      </c>
+      <c r="B111" t="s">
+        <v>61</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D111" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" t="n">
+        <v>5.34929579113054</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>60</v>
+      </c>
+      <c r="B112" t="s">
+        <v>61</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D112" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" t="n">
+        <v>11.3105828279632</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>60</v>
+      </c>
+      <c r="B113" t="s">
+        <v>61</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D113" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" t="n">
+        <v>4.55404083154077</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>62</v>
+      </c>
+      <c r="B114" t="s">
+        <v>63</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" t="n">
+        <v>4.55208045022604</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>62</v>
+      </c>
+      <c r="B115" t="s">
+        <v>63</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" t="n">
+        <v>7.16046973528191</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>62</v>
+      </c>
+      <c r="B116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" t="n">
+        <v>7.13674961211628</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>62</v>
+      </c>
+      <c r="B117" t="s">
+        <v>63</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" t="n">
+        <v>8.66028118250684</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>64</v>
+      </c>
+      <c r="B118" t="s">
+        <v>65</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" t="n">
+        <v>6.27656958239764</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>64</v>
+      </c>
+      <c r="B119" t="s">
+        <v>65</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D119" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" t="n">
+        <v>7.32987266100873</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>64</v>
+      </c>
+      <c r="B120" t="s">
+        <v>65</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D120" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" t="n">
+        <v>6.62835672894546</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>64</v>
+      </c>
+      <c r="B121" t="s">
+        <v>65</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D121" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" t="n">
+        <v>6.26387189388763</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>66</v>
+      </c>
+      <c r="B122" t="s">
+        <v>67</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D122" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" t="n">
+        <v>5.19186230771106</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>66</v>
+      </c>
+      <c r="B123" t="s">
+        <v>67</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" t="n">
+        <v>6.91168541056848</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>66</v>
+      </c>
+      <c r="B124" t="s">
+        <v>67</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D124" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" t="n">
+        <v>6.15582708053751</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>66</v>
+      </c>
+      <c r="B125" t="s">
+        <v>67</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D125" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" t="n">
+        <v>5.25971477168651</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>68</v>
+      </c>
+      <c r="B126" t="s">
+        <v>69</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D126" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" t="n">
+        <v>6.41690599682798</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>68</v>
+      </c>
+      <c r="B127" t="s">
+        <v>69</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D127" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" t="n">
+        <v>4.37372362151123</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>68</v>
+      </c>
+      <c r="B128" t="s">
+        <v>69</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D128" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" t="n">
+        <v>7.81320772653307</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>68</v>
+      </c>
+      <c r="B129" t="s">
+        <v>69</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D129" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" t="n">
+        <v>13.0405229303281</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>70</v>
+      </c>
+      <c r="B130" t="s">
+        <v>71</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D130" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" t="n">
+        <v>8.65867045903358</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>70</v>
+      </c>
+      <c r="B131" t="s">
+        <v>71</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D131" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" t="n">
+        <v>10.4354252717954</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>70</v>
+      </c>
+      <c r="B132" t="s">
+        <v>71</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D132" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" t="n">
+        <v>19.099750993817</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>70</v>
+      </c>
+      <c r="B133" t="s">
+        <v>71</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" t="n">
+        <v>16.2821819803941</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>72</v>
+      </c>
+      <c r="B134" t="s">
         <v>73</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C134" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" t="n">
+        <v>8.01613505529325</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>72</v>
+      </c>
+      <c r="B135" t="s">
+        <v>73</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D135" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4.41948787941726</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>72</v>
+      </c>
+      <c r="B136" t="s">
+        <v>73</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D136" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>6.02450033167018</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>72</v>
+      </c>
+      <c r="B137" t="s">
+        <v>73</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D137" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" t="n">
+        <v>5.19117675255628</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
         <v>74</v>
       </c>
-      <c r="C57" t="n">
+      <c r="B138" t="s">
+        <v>75</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" t="n">
+        <v>4.24173813167881</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>74</v>
+      </c>
+      <c r="B139" t="s">
+        <v>75</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D139" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" t="n">
+        <v>5.57637434918753</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>74</v>
+      </c>
+      <c r="B140" t="s">
+        <v>75</v>
+      </c>
+      <c r="C140" t="n">
         <v>2017</v>
       </c>
-      <c r="D57" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" t="n">
-        <v>14.8958637288</v>
+      <c r="D140" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" t="n">
+        <v>10.005375890243</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>74</v>
+      </c>
+      <c r="B141" t="s">
+        <v>75</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D141" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" t="n">
+        <v>11.2734094786237</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>76</v>
+      </c>
+      <c r="B142" t="s">
+        <v>77</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D142" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" t="n">
+        <v>5.99270652140743</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>76</v>
+      </c>
+      <c r="B143" t="s">
+        <v>77</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D143" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" t="n">
+        <v>5.6145202118625</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>76</v>
+      </c>
+      <c r="B144" t="s">
+        <v>77</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D144" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" t="n">
+        <v>4.35460667093826</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>76</v>
+      </c>
+      <c r="B145" t="s">
+        <v>77</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D145" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" t="n">
+        <v>3.44070358724759</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>78</v>
+      </c>
+      <c r="B146" t="s">
+        <v>79</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D146" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.30691643938061</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>78</v>
+      </c>
+      <c r="B147" t="s">
+        <v>79</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D147" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147" t="n">
+        <v>3.0871320826914</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>78</v>
+      </c>
+      <c r="B148" t="s">
+        <v>79</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D148" t="s">
+        <v>7</v>
+      </c>
+      <c r="E148" t="n">
+        <v>5.5908432878746</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>78</v>
+      </c>
+      <c r="B149" t="s">
+        <v>79</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D149" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2.35423702822691</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>80</v>
+      </c>
+      <c r="B150" t="s">
+        <v>81</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D150" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" t="n">
+        <v>10.3511615013921</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>80</v>
+      </c>
+      <c r="B151" t="s">
+        <v>81</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D151" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" t="n">
+        <v>10.6332993686948</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>80</v>
+      </c>
+      <c r="B152" t="s">
+        <v>81</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D152" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" t="n">
+        <v>10.975498548151</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>80</v>
+      </c>
+      <c r="B153" t="s">
+        <v>81</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D153" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" t="n">
+        <v>10.4964566687668</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>82</v>
+      </c>
+      <c r="B154" t="s">
+        <v>83</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D154" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" t="n">
+        <v>6.86052894630234</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>82</v>
+      </c>
+      <c r="B155" t="s">
+        <v>83</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D155" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" t="n">
+        <v>9.75756592949952</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>82</v>
+      </c>
+      <c r="B156" t="s">
+        <v>83</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D156" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" t="n">
+        <v>9.60168094690027</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>82</v>
+      </c>
+      <c r="B157" t="s">
+        <v>83</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D157" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" t="n">
+        <v>6.50544147194614</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>84</v>
+      </c>
+      <c r="B158" t="s">
+        <v>85</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D158" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" t="n">
+        <v>6.74437968359701</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>84</v>
+      </c>
+      <c r="B159" t="s">
+        <v>85</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D159" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" t="n">
+        <v>14.2764734759883</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>84</v>
+      </c>
+      <c r="B160" t="s">
+        <v>85</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D160" t="s">
+        <v>7</v>
+      </c>
+      <c r="E160" t="n">
+        <v>11.2332166437719</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>84</v>
+      </c>
+      <c r="B161" t="s">
+        <v>85</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D161" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" t="n">
+        <v>3.54631391290018</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>86</v>
+      </c>
+      <c r="B162" t="s">
+        <v>87</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D162" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162" t="n">
+        <v>5.52699912262822</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>86</v>
+      </c>
+      <c r="B163" t="s">
+        <v>87</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D163" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163" t="n">
+        <v>4.1673351308551</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>86</v>
+      </c>
+      <c r="B164" t="s">
+        <v>87</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D164" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164" t="n">
+        <v>7.69829431221221</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>86</v>
+      </c>
+      <c r="B165" t="s">
+        <v>87</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D165" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165" t="n">
+        <v>11.4117910204967</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>88</v>
+      </c>
+      <c r="B166" t="s">
+        <v>89</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D166" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166" t="n">
+        <v>4.74400369567396</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>88</v>
+      </c>
+      <c r="B167" t="s">
+        <v>89</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D167" t="s">
+        <v>7</v>
+      </c>
+      <c r="E167" t="n">
+        <v>5.83481614676009</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>88</v>
+      </c>
+      <c r="B168" t="s">
+        <v>89</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D168" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" t="n">
+        <v>6.4399011398232</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>88</v>
+      </c>
+      <c r="B169" t="s">
+        <v>89</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D169" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169" t="n">
+        <v>8.93981054234803</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>90</v>
+      </c>
+      <c r="B170" t="s">
+        <v>91</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D170" t="s">
+        <v>7</v>
+      </c>
+      <c r="E170" t="n">
+        <v>9.52539365713018</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>90</v>
+      </c>
+      <c r="B171" t="s">
+        <v>91</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D171" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171" t="n">
+        <v>9.52591395447034</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>90</v>
+      </c>
+      <c r="B172" t="s">
+        <v>91</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D172" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172" t="n">
+        <v>4.80528404323665</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>90</v>
+      </c>
+      <c r="B173" t="s">
+        <v>91</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D173" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173" t="n">
+        <v>3.94844419937825</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>92</v>
+      </c>
+      <c r="B174" t="s">
+        <v>93</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D174" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174" t="n">
+        <v>10.6703964084681</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>92</v>
+      </c>
+      <c r="B175" t="s">
+        <v>93</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D175" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" t="n">
+        <v>4.1670998459457</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>92</v>
+      </c>
+      <c r="B176" t="s">
+        <v>93</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D176" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" t="n">
+        <v>7.47997909456477</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>92</v>
+      </c>
+      <c r="B177" t="s">
+        <v>93</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D177" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177" t="n">
+        <v>7.15141836096661</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>94</v>
+      </c>
+      <c r="B178" t="s">
+        <v>95</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D178" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178" t="n">
+        <v>5.2108827237616</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>94</v>
+      </c>
+      <c r="B179" t="s">
+        <v>95</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D179" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" t="n">
+        <v>4.33490166087549</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>94</v>
+      </c>
+      <c r="B180" t="s">
+        <v>95</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D180" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180" t="n">
+        <v>9.82983666686386</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>94</v>
+      </c>
+      <c r="B181" t="s">
+        <v>95</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D181" t="s">
+        <v>7</v>
+      </c>
+      <c r="E181" t="n">
+        <v>14.1229697861299</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>96</v>
+      </c>
+      <c r="B182" t="s">
+        <v>97</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D182" t="s">
+        <v>7</v>
+      </c>
+      <c r="E182" t="n">
+        <v>4.36280871405468</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>96</v>
+      </c>
+      <c r="B183" t="s">
+        <v>97</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D183" t="s">
+        <v>7</v>
+      </c>
+      <c r="E183" t="n">
+        <v>6.22054541294446</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>96</v>
+      </c>
+      <c r="B184" t="s">
+        <v>97</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D184" t="s">
+        <v>7</v>
+      </c>
+      <c r="E184" t="n">
+        <v>7.41584565607451</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>96</v>
+      </c>
+      <c r="B185" t="s">
+        <v>97</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D185" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185" t="n">
+        <v>10.1905285405715</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>98</v>
+      </c>
+      <c r="B186" t="s">
+        <v>99</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D186" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>98</v>
+      </c>
+      <c r="B187" t="s">
+        <v>99</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D187" t="s">
+        <v>7</v>
+      </c>
+      <c r="E187"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>98</v>
+      </c>
+      <c r="B188" t="s">
+        <v>99</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D188" t="s">
+        <v>7</v>
+      </c>
+      <c r="E188"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>98</v>
+      </c>
+      <c r="B189" t="s">
+        <v>99</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D189" t="s">
+        <v>7</v>
+      </c>
+      <c r="E189" t="n">
+        <v>15.1189369373455</v>
       </c>
     </row>
   </sheetData>
@@ -1695,16 +4008,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">
@@ -1712,417 +4025,792 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>8.724532479</v>
+        <v>10.4578116363462</v>
       </c>
       <c r="C2" t="n">
-        <v>6.5064626981</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2"/>
+        <v>8.49766880377428</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.38448984444969</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.00119176910435</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="n">
+        <v>13.4086490748671</v>
+      </c>
       <c r="C3" t="n">
-        <v>13.0494568667</v>
+        <v>8.6249499592772</v>
       </c>
       <c r="D3" t="n">
-        <v>17.5946331904</v>
-      </c>
-      <c r="E3"/>
+        <v>7.99665156477129</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.25835952263058</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>6.2278779243</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
+        <v>7.97990782455595</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.30237414471093</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.42703778082243</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14.3292138919336</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
+      <c r="B5" t="n">
+        <v>4.59305188073156</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.81784860666442</v>
+      </c>
       <c r="D5" t="n">
-        <v>13.7747841222</v>
-      </c>
-      <c r="E5"/>
+        <v>7.09184887951848</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.39060401760197</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>6.0126563482</v>
+        <v>7.19662307760427</v>
       </c>
       <c r="C6" t="n">
-        <v>7.7823228738</v>
+        <v>6.78712290435907</v>
       </c>
       <c r="D6" t="n">
-        <v>8.5217824321</v>
+        <v>7.01418525580879</v>
       </c>
       <c r="E6" t="n">
-        <v>8.5267058753</v>
+        <v>8.64328645922159</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>3.4910563235</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
+        <v>2.28172777044404</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.86564135480659</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.71613566396897</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.67758375474084</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8"/>
+        <v>18</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.47927594675722</v>
+      </c>
       <c r="C8" t="n">
-        <v>6.5295056739</v>
-      </c>
-      <c r="D8"/>
-      <c r="E8"/>
+        <v>5.6794574117072</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.54832596336071</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.82327092648123</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9"/>
+        <v>20</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6.75170625351622</v>
+      </c>
       <c r="C9" t="n">
-        <v>7.9102517225</v>
+        <v>6.75682928138249</v>
       </c>
       <c r="D9" t="n">
-        <v>11.6268733182</v>
-      </c>
-      <c r="E9"/>
+        <v>6.72375813849736</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9.81694649100474</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>5.0684196731</v>
-      </c>
-      <c r="C10"/>
+        <v>4.92363273425035</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.96069153327665</v>
+      </c>
       <c r="D10" t="n">
-        <v>9.9363064378</v>
-      </c>
-      <c r="E10"/>
+        <v>6.36948692550371</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.09179746788867</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>13.7779473859</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
+        <v>7.60880115772197</v>
+      </c>
+      <c r="C11" t="n">
+        <v>12.7304560973475</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8.74926658119169</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8.81163989263754</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="n">
-        <v>10.4812908185</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
+        <v>7.509793262983</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.70683398409794</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.41488890855979</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.59155530685989</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="n">
-        <v>3.7404976239</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
+        <v>9.21153450821357</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5.78141104498454</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10.6149231346082</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8.74213277594687</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14"/>
+        <v>30</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7.08233847333243</v>
+      </c>
       <c r="C14" t="n">
-        <v>4.0016870056</v>
+        <v>5.99697331801451</v>
       </c>
       <c r="D14" t="n">
-        <v>7.2332212223</v>
-      </c>
-      <c r="E14"/>
+        <v>5.85863107763257</v>
+      </c>
+      <c r="E14" t="n">
+        <v>11.8457387867621</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15"/>
+        <v>32</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14.6669041823589</v>
+      </c>
       <c r="C15" t="n">
-        <v>5.4128344624</v>
-      </c>
-      <c r="D15"/>
-      <c r="E15"/>
+        <v>12.2971511424712</v>
+      </c>
+      <c r="D15" t="n">
+        <v>12.7972616432693</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9.64869655749284</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16"/>
-      <c r="C16"/>
+        <v>34</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4.89304317520322</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.23722693845021</v>
+      </c>
       <c r="D16" t="n">
-        <v>17.4306849889</v>
-      </c>
-      <c r="E16"/>
+        <v>6.59873733389536</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4.64717979547219</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17"/>
-      <c r="C17"/>
+        <v>36</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6.61029106998925</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8.74636670008211</v>
+      </c>
       <c r="D17" t="n">
-        <v>9.7660594125</v>
-      </c>
-      <c r="E17"/>
+        <v>6.38924265021708</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6.31016267077402</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" t="n">
-        <v>6.7851138604</v>
-      </c>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
+        <v>2.79512706859898</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.22941772914522</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6.33634841360954</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.5432999515678</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" t="n">
-        <v>5.4639928713</v>
+        <v>6.65804024760624</v>
       </c>
       <c r="C19" t="n">
-        <v>5.0879670193</v>
-      </c>
-      <c r="D19"/>
-      <c r="E19"/>
+        <v>6.21246329709312</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7.95156465923154</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6.71713215807037</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" t="n">
-        <v>8.2394537366</v>
-      </c>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
+        <v>12.6942287588123</v>
+      </c>
+      <c r="C20" t="n">
+        <v>17.3670592818469</v>
+      </c>
+      <c r="D20" t="n">
+        <v>18.0137015518756</v>
+      </c>
+      <c r="E20" t="n">
+        <v>17.1068309838845</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3658253431</v>
-      </c>
-      <c r="C21"/>
+        <v>1.57029913269219</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.47839323805995</v>
+      </c>
       <c r="D21" t="n">
-        <v>5.9042640904</v>
-      </c>
-      <c r="E21"/>
+        <v>2.09439866175865</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.04532062373638</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22"/>
-      <c r="C22"/>
+        <v>46</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6.97017524446282</v>
+      </c>
+      <c r="C22" t="n">
+        <v>9.06819506198462</v>
+      </c>
       <c r="D22" t="n">
-        <v>3.68650404</v>
-      </c>
-      <c r="E22"/>
+        <v>8.67794297638396</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7.10338235508178</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23"/>
-      <c r="C23"/>
+        <v>48</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.75111497510359</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.50092752126695</v>
+      </c>
       <c r="D23" t="n">
-        <v>6.390150581</v>
+        <v>1.42204908419383</v>
       </c>
       <c r="E23" t="n">
-        <v>5.2352482554</v>
+        <v>0.90911060732868</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24"/>
+        <v>50</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8.53594833859117</v>
+      </c>
       <c r="C24" t="n">
-        <v>8.4302274997</v>
+        <v>5.95432048313127</v>
       </c>
       <c r="D24" t="n">
-        <v>8.0201377509</v>
-      </c>
-      <c r="E24"/>
+        <v>6.94860526914512</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7.03535887029521</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" t="n">
-        <v>3.8955182872</v>
-      </c>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
+        <v>6.06834328186116</v>
+      </c>
+      <c r="C25" t="n">
+        <v>8.17768407300319</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5.88038580163676</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6.46367140478398</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26"/>
-      <c r="C26"/>
+        <v>54</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.55725009913536</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.62364691039014</v>
+      </c>
       <c r="D26" t="n">
-        <v>6.9098980732</v>
-      </c>
-      <c r="E26"/>
+        <v>7.55435570195506</v>
+      </c>
+      <c r="E26" t="n">
+        <v>6.04857742331363</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27"/>
+        <v>56</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.33848249923242</v>
+      </c>
       <c r="C27" t="n">
-        <v>4.3708674047</v>
+        <v>5.92588657277721</v>
       </c>
       <c r="D27" t="n">
-        <v>5.4184026441</v>
-      </c>
-      <c r="E27"/>
+        <v>6.10447696799153</v>
+      </c>
+      <c r="E27" t="n">
+        <v>6.17935147837109</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28"/>
-      <c r="C28"/>
+        <v>58</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5.04172571248622</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.54043929848459</v>
+      </c>
       <c r="D28" t="n">
-        <v>7.0924635437</v>
+        <v>5.00428083663708</v>
       </c>
       <c r="E28" t="n">
-        <v>9.0724497926</v>
+        <v>4.89071724340166</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29"/>
-      <c r="C29"/>
+        <v>60</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4.40298779282139</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5.34929579113054</v>
+      </c>
       <c r="D29" t="n">
-        <v>10.4169146994</v>
+        <v>11.3105828279632</v>
       </c>
       <c r="E29" t="n">
-        <v>12.1678820533</v>
+        <v>4.55404083154077</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30"/>
-      <c r="C30"/>
+        <v>62</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4.55208045022604</v>
+      </c>
+      <c r="C30" t="n">
+        <v>7.16046973528191</v>
+      </c>
       <c r="D30" t="n">
-        <v>12.4646924459</v>
+        <v>7.13674961211628</v>
       </c>
       <c r="E30" t="n">
-        <v>12.46133283</v>
+        <v>8.66028118250684</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31"/>
+        <v>64</v>
+      </c>
+      <c r="B31" t="n">
+        <v>6.27656958239764</v>
+      </c>
       <c r="C31" t="n">
-        <v>9.3043458322</v>
+        <v>7.32987266100873</v>
       </c>
       <c r="D31" t="n">
-        <v>4.3018985632</v>
+        <v>6.62835672894546</v>
       </c>
       <c r="E31" t="n">
-        <v>12.554982068</v>
+        <v>6.26387189388763</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32"/>
-      <c r="C32"/>
+        <v>66</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5.19186230771106</v>
+      </c>
+      <c r="C32" t="n">
+        <v>6.91168541056848</v>
+      </c>
       <c r="D32" t="n">
-        <v>5.8961871169</v>
+        <v>6.15582708053751</v>
       </c>
       <c r="E32" t="n">
-        <v>8.1506918807</v>
+        <v>5.25971477168651</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33"/>
+        <v>68</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6.41690599682798</v>
+      </c>
       <c r="C33" t="n">
-        <v>11.4526789771</v>
-      </c>
-      <c r="D33"/>
-      <c r="E33"/>
+        <v>4.37372362151123</v>
+      </c>
+      <c r="D33" t="n">
+        <v>7.81320772653307</v>
+      </c>
+      <c r="E33" t="n">
+        <v>13.0405229303281</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34"/>
+        <v>70</v>
+      </c>
+      <c r="B34" t="n">
+        <v>8.65867045903358</v>
+      </c>
       <c r="C34" t="n">
-        <v>9.7354469221</v>
-      </c>
-      <c r="D34"/>
+        <v>10.4354252717954</v>
+      </c>
+      <c r="D34" t="n">
+        <v>19.099750993817</v>
+      </c>
       <c r="E34" t="n">
-        <v>9.9786727795</v>
+        <v>16.2821819803941</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35"/>
+        <v>72</v>
+      </c>
+      <c r="B35" t="n">
+        <v>8.01613505529325</v>
+      </c>
       <c r="C35" t="n">
-        <v>9.9202080782</v>
+        <v>4.41948787941726</v>
       </c>
       <c r="D35" t="n">
-        <v>11.7754327047</v>
+        <v>6.02450033167018</v>
       </c>
       <c r="E35" t="n">
-        <v>14.8958637288</v>
+        <v>5.19117675255628</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4.24173813167881</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5.57637434918753</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10.005375890243</v>
+      </c>
+      <c r="E36" t="n">
+        <v>11.2734094786237</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5.99270652140743</v>
+      </c>
+      <c r="C37" t="n">
+        <v>5.6145202118625</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4.35460667093826</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.44070358724759</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.30691643938061</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3.0871320826914</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5.5908432878746</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.35423702822691</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" t="n">
+        <v>10.3511615013921</v>
+      </c>
+      <c r="C39" t="n">
+        <v>10.6332993686948</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10.975498548151</v>
+      </c>
+      <c r="E39" t="n">
+        <v>10.4964566687668</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6.86052894630234</v>
+      </c>
+      <c r="C40" t="n">
+        <v>9.75756592949952</v>
+      </c>
+      <c r="D40" t="n">
+        <v>9.60168094690027</v>
+      </c>
+      <c r="E40" t="n">
+        <v>6.50544147194614</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="n">
+        <v>6.74437968359701</v>
+      </c>
+      <c r="C41" t="n">
+        <v>14.2764734759883</v>
+      </c>
+      <c r="D41" t="n">
+        <v>11.2332166437719</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3.54631391290018</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5.52699912262822</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4.1673351308551</v>
+      </c>
+      <c r="D42" t="n">
+        <v>7.69829431221221</v>
+      </c>
+      <c r="E42" t="n">
+        <v>11.4117910204967</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4.74400369567396</v>
+      </c>
+      <c r="C43" t="n">
+        <v>5.83481614676009</v>
+      </c>
+      <c r="D43" t="n">
+        <v>6.4399011398232</v>
+      </c>
+      <c r="E43" t="n">
+        <v>8.93981054234803</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" t="n">
+        <v>9.52539365713018</v>
+      </c>
+      <c r="C44" t="n">
+        <v>9.52591395447034</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4.80528404323665</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3.94844419937825</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="n">
+        <v>10.6703964084681</v>
+      </c>
+      <c r="C45" t="n">
+        <v>4.1670998459457</v>
+      </c>
+      <c r="D45" t="n">
+        <v>7.47997909456477</v>
+      </c>
+      <c r="E45" t="n">
+        <v>7.15141836096661</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5.2108827237616</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4.33490166087549</v>
+      </c>
+      <c r="D46" t="n">
+        <v>9.82983666686386</v>
+      </c>
+      <c r="E46" t="n">
+        <v>14.1229697861299</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4.36280871405468</v>
+      </c>
+      <c r="C47" t="n">
+        <v>6.22054541294446</v>
+      </c>
+      <c r="D47" t="n">
+        <v>7.41584565607451</v>
+      </c>
+      <c r="E47" t="n">
+        <v>10.1905285405715</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48" t="n">
+        <v>15.1189369373455</v>
       </c>
     </row>
   </sheetData>
